--- a/1_seminar.xlsx
+++ b/1_seminar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKSPACE\enter_bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508B1CFE-94EB-4E89-A235-8D7665B494C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F562C17-BB35-48E0-A49E-ADCEF9A54C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19103" yWindow="-98" windowWidth="28995" windowHeight="15796" activeTab="2" xr2:uid="{74865A95-1F64-4962-8852-09659A1B67A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{74865A95-1F64-4962-8852-09659A1B67A2}"/>
   </bookViews>
   <sheets>
     <sheet name="1 задание" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>Задание 1
 Составить таблицы с данными по ученикам в школе. Хранить нужно ФИО ученика, год рождения, класс, место в классе (ряд, парта, вариант), статус по оценкам (отличник, ударник, троечник или двоечник).
@@ -165,6 +165,162 @@
 Составьте таблицы для хранения сведений об общественном транспорте.
 — Можно на примере автобусов.
 — При составлении таблиц не берите слишком много сущностей. Ориентируйтесь на структуру типа: «У нас есть автобусы на разных маршрутах, у автобуса есть водитель, также в автобусе работает кондуктор». Более сложные/глубокие структуры пока лучше не брать.</t>
+  </si>
+  <si>
+    <t>Книги</t>
+  </si>
+  <si>
+    <t>Жанр</t>
+  </si>
+  <si>
+    <t>Год издания</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Долина ужаса</t>
+  </si>
+  <si>
+    <t>Яд бессмертия</t>
+  </si>
+  <si>
+    <t>Возвращение</t>
+  </si>
+  <si>
+    <t>Триумфальная арка</t>
+  </si>
+  <si>
+    <t>Иллюзия греха</t>
+  </si>
+  <si>
+    <t>Детектив</t>
+  </si>
+  <si>
+    <t>Преступление и наказание</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>Дойл Артур Конан</t>
+  </si>
+  <si>
+    <t>Ремарк Эрих Мария</t>
+  </si>
+  <si>
+    <t>Робертс Нора</t>
+  </si>
+  <si>
+    <t>Маринина Александра</t>
+  </si>
+  <si>
+    <t>Достоевский Фёдор</t>
+  </si>
+  <si>
+    <t>Авторы</t>
+  </si>
+  <si>
+    <t>Названия</t>
+  </si>
+  <si>
+    <t>Жанры</t>
+  </si>
+  <si>
+    <t>Автор ID</t>
+  </si>
+  <si>
+    <t>Название ID</t>
+  </si>
+  <si>
+    <t>Жанр ID</t>
+  </si>
+  <si>
+    <t>Транспорт</t>
+  </si>
+  <si>
+    <t>Типы</t>
+  </si>
+  <si>
+    <t>Автобус</t>
+  </si>
+  <si>
+    <t>Троллейбус</t>
+  </si>
+  <si>
+    <t>Трамвай</t>
+  </si>
+  <si>
+    <t>Поезд</t>
+  </si>
+  <si>
+    <t>Маршруты</t>
+  </si>
+  <si>
+    <t>2А</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Маршрут</t>
+  </si>
+  <si>
+    <t>Гос.номер</t>
+  </si>
+  <si>
+    <t>а21</t>
+  </si>
+  <si>
+    <t>а22</t>
+  </si>
+  <si>
+    <t>а23</t>
+  </si>
+  <si>
+    <t>а24</t>
+  </si>
+  <si>
+    <t>а25</t>
+  </si>
+  <si>
+    <t>а26</t>
+  </si>
+  <si>
+    <t>Водитель</t>
+  </si>
+  <si>
+    <t>Кондуктор</t>
+  </si>
+  <si>
+    <t>Водители</t>
+  </si>
+  <si>
+    <t>Кондукторы</t>
+  </si>
+  <si>
+    <t>Иванов И.И.</t>
+  </si>
+  <si>
+    <t>Петров П.П.</t>
+  </si>
+  <si>
+    <t>Сидоров С.С.</t>
+  </si>
+  <si>
+    <t>Федоров Ф.Ф.</t>
+  </si>
+  <si>
+    <t>Федункин А.С.</t>
+  </si>
+  <si>
+    <t>Пушкин А.С.</t>
+  </si>
+  <si>
+    <t>Михайлов С.П.</t>
+  </si>
+  <si>
+    <t>Федоров И.А.</t>
   </si>
 </sst>
 </file>
@@ -262,12 +418,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -291,18 +444,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -317,6 +458,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -453,15 +612,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>848968</xdr:colOff>
+      <xdr:colOff>877956</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>140804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>45555</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>91108</xdr:rowOff>
+      <xdr:colOff>45556</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>115960</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -476,12 +635,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="1805610" y="2319130"/>
-          <a:ext cx="3412435" cy="1971261"/>
+          <a:off x="1832526" y="2333625"/>
+          <a:ext cx="3213656" cy="1859448"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 65543"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -667,6 +826,396 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Соединитель: изогнутый 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72B39EA6-6F6C-4EAA-84D4-6645D9189355}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="2271713" y="1909762"/>
+          <a:ext cx="1866900" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Соединитель: изогнутый 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D51960-DFFB-4148-8F14-B0FA6105942F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4924425" y="1609725"/>
+          <a:ext cx="3600450" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 87831"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Соединитель: изогнутый 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0984F1AB-C58E-44C9-AB4E-1913FD3CD13D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="900113" y="2547937"/>
+          <a:ext cx="2133600" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Соединитель: изогнутый 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E613C6-7241-46A6-B820-FFE01B6086B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="781050" y="2343150"/>
+          <a:ext cx="1905000" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Соединитель: изогнутый 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A0ED39-C7BA-49BE-8D76-10092B17D4F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1833563" y="2881312"/>
+          <a:ext cx="1895475" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Соединитель: изогнутый 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF1B9CC-99BF-4661-8675-77326D49E94C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="3567113" y="2319337"/>
+          <a:ext cx="1905000" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Соединитель: изогнутый 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{448B086E-B59E-48D4-AEC4-41B8DE910D4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4714875" y="2000251"/>
+          <a:ext cx="2133600" cy="1914525"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -977,298 +1526,298 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35664F6D-D81A-488B-82A5-FD1A00DA0166}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="J8" s="10" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="J8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="6" t="s">
+      <c r="J9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>2005</v>
       </c>
-      <c r="F10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
-        <v>4</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5" t="s">
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>4</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C11" s="8">
-        <v>2</v>
-      </c>
-      <c r="D11" s="9" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>2004</v>
       </c>
-      <c r="F11" s="8">
-        <v>2</v>
-      </c>
-      <c r="G11" s="8">
-        <v>2</v>
-      </c>
-      <c r="H11" s="8">
-        <v>2</v>
-      </c>
-      <c r="J11" s="5">
-        <v>2</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C12" s="8">
-        <v>3</v>
-      </c>
-      <c r="D12" s="9" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>2007</v>
       </c>
-      <c r="F12" s="8">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3</v>
-      </c>
-      <c r="H12" s="8">
-        <v>3</v>
-      </c>
-      <c r="J12" s="5">
-        <v>3</v>
-      </c>
-      <c r="K12" s="5" t="s">
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>3</v>
+      </c>
+      <c r="H12" s="7">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4">
+        <v>3</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C13" s="8">
-        <v>4</v>
-      </c>
-      <c r="D13" s="9" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>2013</v>
       </c>
-      <c r="F13" s="8">
-        <v>3</v>
-      </c>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
-      <c r="H13" s="8">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5">
-        <v>4</v>
-      </c>
-      <c r="K13" s="5" t="s">
+      <c r="F13" s="7">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>4</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C14" s="8">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="7">
         <v>5</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>2009</v>
       </c>
-      <c r="F14" s="8">
-        <v>4</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="F14" s="7">
+        <v>4</v>
+      </c>
+      <c r="G14" s="7">
         <v>5</v>
       </c>
-      <c r="H14" s="8">
-        <v>3</v>
-      </c>
-      <c r="J14" s="11">
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="J14" s="10">
         <v>5</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="8">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="7">
         <v>6</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>2013</v>
       </c>
-      <c r="F15" s="8">
-        <v>2</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="F15" s="7">
+        <v>2</v>
+      </c>
+      <c r="G15" s="7">
         <v>6</v>
       </c>
-      <c r="H15" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C16" s="8">
+      <c r="H15" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="7">
         <v>7</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>2008</v>
       </c>
-      <c r="F16" s="8">
-        <v>4</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="F16" s="7">
+        <v>4</v>
+      </c>
+      <c r="G16" s="7">
         <v>7</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1276,259 +1825,259 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D18" s="18" t="s">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="H18" s="13" t="s">
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="H18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="6" t="s">
+      <c r="H19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7" t="s">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="9">
-        <v>1</v>
-      </c>
-      <c r="I20" s="5" t="s">
+      <c r="H20" s="8">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D21" s="5">
-        <v>2</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7" t="s">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="9">
-        <v>2</v>
-      </c>
-      <c r="I21" s="5" t="s">
+      <c r="H21" s="8">
+        <v>2</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D22" s="5">
-        <v>3</v>
-      </c>
-      <c r="E22" s="7">
-        <v>2</v>
-      </c>
-      <c r="F22" s="7" t="s">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="4">
+        <v>3</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="9">
-        <v>3</v>
-      </c>
-      <c r="I22" s="5" t="s">
+      <c r="H22" s="8">
+        <v>3</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D23" s="5">
-        <v>4</v>
-      </c>
-      <c r="E23" s="7">
-        <v>3</v>
-      </c>
-      <c r="F23" s="7" t="s">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="4">
+        <v>4</v>
+      </c>
+      <c r="E23" s="6">
+        <v>3</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I24" s="4" t="s">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D25" s="13" t="s">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="I25" s="4" t="s">
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="17"/>
+      <c r="I25" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3" t="s">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D27" s="5">
-        <v>1</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
-      <c r="F27" s="5">
-        <v>3</v>
-      </c>
-      <c r="G27" s="5">
-        <v>1</v>
-      </c>
-      <c r="I27" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D28" s="5">
-        <v>2</v>
-      </c>
-      <c r="E28" s="5">
-        <v>2</v>
-      </c>
-      <c r="F28" s="5">
-        <v>4</v>
-      </c>
-      <c r="G28" s="5">
-        <v>2</v>
-      </c>
-      <c r="I28" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D29" s="5">
-        <v>3</v>
-      </c>
-      <c r="E29" s="5">
-        <v>3</v>
-      </c>
-      <c r="F29" s="5">
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>3</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D28" s="4">
+        <v>2</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4">
+        <v>4</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2</v>
+      </c>
+      <c r="I28" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D29" s="4">
+        <v>3</v>
+      </c>
+      <c r="E29" s="4">
+        <v>3</v>
+      </c>
+      <c r="F29" s="4">
         <v>5</v>
       </c>
-      <c r="G29" s="5">
-        <v>1</v>
-      </c>
-      <c r="I29" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D30" s="5">
-        <v>4</v>
-      </c>
-      <c r="E30" s="5">
-        <v>3</v>
-      </c>
-      <c r="F30" s="5">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5">
-        <v>1</v>
-      </c>
-      <c r="I30" s="5">
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="4">
+        <v>4</v>
+      </c>
+      <c r="E30" s="4">
+        <v>3</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D31" s="5">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="4">
         <v>5</v>
       </c>
-      <c r="E31" s="5">
-        <v>2</v>
-      </c>
-      <c r="F31" s="5">
-        <v>4</v>
-      </c>
-      <c r="G31" s="5">
-        <v>2</v>
-      </c>
-      <c r="I31" s="5">
+      <c r="E31" s="4">
+        <v>2</v>
+      </c>
+      <c r="F31" s="4">
+        <v>4</v>
+      </c>
+      <c r="G31" s="4">
+        <v>2</v>
+      </c>
+      <c r="I31" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D32" s="5">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="4">
         <v>6</v>
       </c>
-      <c r="E32" s="5">
-        <v>3</v>
-      </c>
-      <c r="F32" s="5">
+      <c r="E32" s="4">
+        <v>3</v>
+      </c>
+      <c r="F32" s="4">
         <v>6</v>
       </c>
-      <c r="G32" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D33" s="5">
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="4">
         <v>7</v>
       </c>
-      <c r="E33" s="5">
-        <v>2</v>
-      </c>
-      <c r="F33" s="5">
-        <v>2</v>
-      </c>
-      <c r="G33" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="G35" s="17" t="s">
+      <c r="E33" s="4">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="G36" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="G37" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="G38" s="7">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1568,190 +2117,822 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7713CF2-5F03-4535-A86C-141F810E03FB}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4">
+        <v>6</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="F18" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="I18" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="4">
+        <v>2</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="4">
+        <v>3</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="4">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="4">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="4">
+        <v>5</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="4">
+        <v>6</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="4">
+        <v>6</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G6"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:H6"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B8:F8"/>
   </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E15" xr:uid="{6599249B-5C54-42A9-9CF7-607B2770CBC6}">
+      <formula1>$I$20:$I$21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D15" xr:uid="{C6AD9802-6BFE-4C1C-AE01-FB2355F4F512}">
+      <formula1>$F$20:$F$25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C15" xr:uid="{A05563BA-859D-48E4-87D9-D48F07EDBDF1}">
+      <formula1>$C$20:$C$25</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143624CA-86B8-4FBB-8C67-6FD7D88A7AF0}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4</v>
+      </c>
+      <c r="G15" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="E20" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="H20" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="17"/>
+      <c r="K20" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9">
+        <v>13</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3</v>
+      </c>
+      <c r="F24" s="9">
+        <v>34</v>
+      </c>
+      <c r="H24" s="4">
+        <v>3</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" s="4">
+        <v>3</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="4">
+        <v>4</v>
+      </c>
+      <c r="F25" s="9">
+        <v>22</v>
+      </c>
+      <c r="H25" s="4">
+        <v>4</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" s="4">
+        <v>4</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J8"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:K8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="K20:L20"/>
   </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D17" xr:uid="{A5B29535-5408-45C2-94BF-7BF5BFEF4140}">
+      <formula1>$B$22:$B$25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E17" xr:uid="{347E216A-5C7D-4C8D-AC35-29D6D4275CD1}">
+      <formula1>$E$22:$E$25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:F17" xr:uid="{96A6D668-8549-42CF-88F1-1662F7CA72DD}">
+      <formula1>$H$22:$H$25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12:G17" xr:uid="{6F1DF125-7BBD-4D2C-830C-14E38AE447EA}">
+      <formula1>$K$22:$K$25</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>